--- a/src/main/resources/templates/history_metting_template.xlsx
+++ b/src/main/resources/templates/history_metting_template.xlsx
@@ -1062,7 +1062,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="33.75" outlineLevelCol="6"/>
@@ -1070,8 +1070,8 @@
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="2" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="21.75" customWidth="1"/>
-    <col min="4" max="4" width="35.5" customWidth="1"/>
-    <col min="5" max="5" width="33.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46" customWidth="1"/>
+    <col min="5" max="5" width="42.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
     <col min="8" max="11" width="9" style="1"/>
